--- a/SQL/SQL_評量0801/SQL_評量_Q1.xlsx
+++ b/SQL/SQL_評量0801/SQL_評量_Q1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java班\git_upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java班\git_upload\SQL\SQL_評量0801\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FA97CB-82FD-487D-989E-F0E28C87F029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274AF675-EDB2-43CE-BB28-55C2009727AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -215,10 +215,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>NVARCHAR2(20)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -406,6 +402,10 @@
   </si>
   <si>
     <t>037-616072</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(5,0)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -454,13 +454,12 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,13 +480,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,7 +551,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -583,6 +576,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -601,22 +603,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -966,13 +956,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1A47CA-532C-4318-8D23-1C0A59A513C2}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
     <col min="2" max="2" width="31.875" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="14.625" customWidth="1"/>
@@ -987,21 +977,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="I1" s="8" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="I1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="12"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1033,19 +1023,19 @@
       <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>34</v>
       </c>
       <c r="I3" s="7" t="s">
@@ -1063,41 +1053,41 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1110,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>0</v>
@@ -1118,21 +1108,21 @@
       <c r="G5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="8">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1145,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>2</v>
@@ -1153,21 +1143,21 @@
       <c r="G6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>89</v>
+      <c r="J6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="8">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1180,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -1188,21 +1178,21 @@
       <c r="G7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>90</v>
+      <c r="J7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="8">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1215,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>4</v>
@@ -1223,21 +1213,21 @@
       <c r="G8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="L8" s="18" t="s">
-        <v>91</v>
+      <c r="J8" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="8">
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1250,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>5</v>
@@ -1258,25 +1248,25 @@
       <c r="G9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="L9" s="18" t="s">
-        <v>92</v>
+      <c r="J9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="A10" s="8">
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="5">
         <v>26</v>
@@ -1285,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>5</v>
@@ -1293,21 +1283,21 @@
       <c r="G10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>93</v>
+      <c r="J10" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="A11" s="8">
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1320,7 +1310,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>5</v>
@@ -1328,21 +1318,21 @@
       <c r="G11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="L11" s="18" t="s">
-        <v>94</v>
+      <c r="J11" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="8">
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1355,7 +1345,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>31</v>
@@ -1363,21 +1353,21 @@
       <c r="G12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="L12" s="18" t="s">
-        <v>95</v>
+      <c r="J12" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="A13" s="8">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1390,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>7</v>
@@ -1398,13 +1388,13 @@
       <c r="G13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="8">
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1417,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>9</v>
@@ -1425,15 +1415,15 @@
       <c r="G14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="10"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="13"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
+      <c r="A15" s="8">
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1446,7 +1436,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -1462,7 +1452,7 @@
       <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="A16" s="8">
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1475,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
@@ -1483,48 +1473,48 @@
       <c r="G16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J16" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="K16" s="6" t="s">
+      <c r="L16" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I17" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="L17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="I18" s="18" t="s">
+      <c r="B18" s="13"/>
+      <c r="I18" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="J18" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K18" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="L18" s="18" t="s">
+      <c r="L18" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1533,16 +1523,16 @@
         <v>37</v>
       </c>
       <c r="B19" s="6"/>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="18" t="s">
+      <c r="J19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="K19" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="L19" s="18" t="s">
+      <c r="L19" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1551,59 +1541,59 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I20" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="18" t="s">
+      <c r="J20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K20" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K20" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L20" s="18" t="s">
+      <c r="L20" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="18" t="s">
+      <c r="A22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B24" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B25" s="9" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="34" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/SQL/SQL_評量0801/SQL_評量_Q1.xlsx
+++ b/SQL/SQL_評量0801/SQL_評量_Q1.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java班\git_upload\SQL\SQL_評量0801\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274AF675-EDB2-43CE-BB28-55C2009727AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DAB04E-E95C-4468-BB08-A30C5D2955D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
+    <sheet name="Chart2" sheetId="3" r:id="rId2"/>
+    <sheet name="Chart3" sheetId="4" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -585,6 +588,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -602,12 +611,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,6 +658,2524 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="63700512"/>
+        <c:axId val="63699072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="63700512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="63699072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="63699072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="63700512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="63701472"/>
+        <c:axId val="63697632"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="63701472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="63697632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="63697632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="63701472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$A$16:$F$16</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>苗栗縣頭份市信義里中正路116號</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>B004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>C008</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$G$1:$G$15</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="1">
+                  <c:v>FK</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>轄管分局代號</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>VARCHAR2(10 BYTE)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>M001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>M001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>M001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>M001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>M002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>M002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>M002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>M002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>M003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>M003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>M003</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C331-479E-A4C8-651121A6C982}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2006470160"/>
+        <c:axId val="2006470640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2006470160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2006470640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2006470640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2006470160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{97EB68C0-5543-4422-B46F-D2646A0C3D8B}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{898357A1-2EDF-489B-B397-E2BF125EFCB4}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{10839F72-13C7-4A2A-BDC3-605FAAFA18E6}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9298983" cy="6078242"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B64EFF51-18A8-CC59-31CF-ABA12C80087A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9298983" cy="6078242"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F81A9F52-2C55-9E19-F566-D50C6FE18229}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9298983" cy="6078242"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C099785-6A41-94A6-8010-84A390959FA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -957,7 +3478,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -977,21 +3498,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="I1" s="11" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="I1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="15"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="17"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1023,7 +3544,7 @@
       <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -1035,7 +3556,7 @@
       <c r="F3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="11" t="s">
         <v>34</v>
       </c>
       <c r="I3" s="7" t="s">
@@ -1056,7 +3577,7 @@
         <v>95</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>95</v>
@@ -1415,12 +3936,12 @@
       <c r="G14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="13"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="15"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
@@ -1473,10 +3994,10 @@
       <c r="G16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="18" t="s">
+      <c r="J16" s="12" t="s">
         <v>69</v>
       </c>
       <c r="K16" s="6" t="s">
@@ -1501,10 +4022,10 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="13"/>
+      <c r="B18" s="15"/>
       <c r="I18" s="9" t="s">
         <v>1</v>
       </c>
